--- a/biology/Botanique/Hectorellaceae/Hectorellaceae.xlsx
+++ b/biology/Botanique/Hectorellaceae/Hectorellaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,15 +490,17 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Hectorellaceae est une famille de plantes dicotylédones qui ne comprend que deux espèces des genres :
 Hectorella (Hectorella caespitosa), endémique de la Nouvelle-Zélande,
 Lyallia (Lyallia kerguelensis), endémique des îles Kerguelen.
-Ce sont deux plantes herbacées pérennes, cespiteuses, en forme de coussins, originaires des régions froides ou tempérées de l'hémisphère sud. Il se pourrait qu'elles aient un ancêtre commun qui vivait en antarctique, puis que les glaces aient réduit son aire de répartition, séparant deux populations qui ont évolué vers deux espèces, Lyallia et Hectorella, deux genres monotypiques[1].
-Cette famille n'existe pas dans la classification classique de Cronquist (1981)[2].
-La classification phylogénétique APG II (2003)[3] situe les espèces dans la famille des Portulacaceae. Néanmoins, cette famille des Hectorellaceae ne semble pas encore rejetée complètement.
-En classification phylogénétique APG III (2009)[4] cette famille est invalide et ses genres sont incorporés dans la famille Montiaceae.
+Ce sont deux plantes herbacées pérennes, cespiteuses, en forme de coussins, originaires des régions froides ou tempérées de l'hémisphère sud. Il se pourrait qu'elles aient un ancêtre commun qui vivait en antarctique, puis que les glaces aient réduit son aire de répartition, séparant deux populations qui ont évolué vers deux espèces, Lyallia et Hectorella, deux genres monotypiques.
+Cette famille n'existe pas dans la classification classique de Cronquist (1981).
+La classification phylogénétique APG II (2003) situe les espèces dans la famille des Portulacaceae. Néanmoins, cette famille des Hectorellaceae ne semble pas encore rejetée complètement.
+En classification phylogénétique APG III (2009) cette famille est invalide et ses genres sont incorporés dans la famille Montiaceae.
 </t>
         </is>
       </c>
@@ -517,7 +529,9 @@
           <t>Liens internes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 ↑ (en) Steven J. Wagstaff et Françoise Hennion, « Evolution and biogeography of Lyallia and Hectorella (Portulacaceae), geographically isolated sisters from the Southern Hemisphere », Antarctic Science, vol. 19, no 4,‎ décembre 2007, p. 417–426 (ISSN 0954-1020 et 1365-2079, DOI 10.1017/S0954102007000648, lire en ligne, consulté le 1er février 2021)
